--- a/medicine/Psychotrope/Château_d'Eck/Château_d'Eck.xlsx
+++ b/medicine/Psychotrope/Château_d'Eck/Château_d'Eck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Eck</t>
+          <t>Château_d'Eck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château d'Eck est un domaine viticole, en AOC Pessac-léognan, situé à Cadaujac en Gironde en bordure de l'autoroute A62.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Eck</t>
+          <t>Château_d'Eck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fondations de la bâtisse datent du XIe siècle et le château originel possédait un système de défense. Les bâtiments actuels sont disposés en U. La façade Nord est flanquée d’une tour à chaque extrémité et percée d’un passage en son centre. Les murs ouest et est, avec des tours aux extrémités sud, encadrent une cour intérieure.
 Depuis son origine il était connu sous le nom de château des Freytets à cause de ses terres bien exposées, favorables à la culture des fruits, Freytets signifiant fruitiers en Gascon. Ses terroirs variés allant des croupes graveleuses aux sols sableux sur argiles sont bien exposés et propices à la culture de la vigne. C’est au XIe siècle, sous l’impulsion de Guillaume VIII d'Aquitaine que le vin de la propriété devient réputé.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_d%27Eck</t>
+          <t>Château_d'Eck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parcelles, étendues sur sept hectares de merlot, cabernet-sauvignon et petit verdot, sont travaillées selon les règles de la viticulture Bio. Le travail de la terre se fait avec des chevaux pour éviter au maximum le passage des tracteurs. La vinification est faite en cuve inox. Élevage avec micro-oxygénation puis mise en barriques pendant 12 mois.
 Les jeunes vignes ont donné leur « première production » en 2004. En 2012 est produit la « Grande Cuvée de Château d'Eck », vin puissant et équilibré aux arômes de fruits cuits de pruneaux et d'épices douces et en 2013 du vin : « Second d'Eck », un vin élégant aux arômes de fruits rouges.
